--- a/data/case1/20/Q2_5.xlsx
+++ b/data/case1/20/Q2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.26057394822036883</v>
+        <v>0.19581585852348837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999284379157</v>
+        <v>-0.0059999999758062472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999312012591</v>
+        <v>-0.0039999999791273666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998770752256</v>
+        <v>-0.007999999961564086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999240013508</v>
+        <v>-0.0029999999789467324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999098825327</v>
+        <v>-0.0019999999780857536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998193074369</v>
+        <v>-0.0099999999463618039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998200583917</v>
+        <v>-0.0099999999446653831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999135169588</v>
+        <v>-0.0019999999737976282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999171442795</v>
+        <v>-0.0019999999720337058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.002999999906265316</v>
+        <v>-0.0029999999680567768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999018667793</v>
+        <v>-0.0034999999656872838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999106997137</v>
+        <v>-0.0034999999640819013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998632027669</v>
+        <v>-0.0025418039961495609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.047472191705492328</v>
+        <v>-0.00099999997295174836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999345734487</v>
+        <v>-0.0019999999686599601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999332922513</v>
+        <v>-0.0019999999681035163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999910502261</v>
+        <v>-0.0039999999601914027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.054634859859062246</v>
+        <v>-0.035817198935969241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.00399999994522382</v>
+        <v>-0.0039999999819606558</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999446580503</v>
+        <v>-0.0039999999817750265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999445310408</v>
+        <v>-0.0039999999816515697</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999916535991</v>
+        <v>-0.004999999973972713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999741660446</v>
+        <v>-0.019999999913491884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.014219473481414724</v>
+        <v>-0.019999999912392319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998994239547</v>
+        <v>-0.0024999999760595415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.028273950169710016</v>
+        <v>-0.0024999999756096791</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998758075677</v>
+        <v>-0.0019999999757107645</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998040390921</v>
+        <v>-0.0069999999550658387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0599999991964979</v>
+        <v>-0.059999999749056343</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999997902332467</v>
+        <v>-0.0069999999573884253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997554771625</v>
+        <v>-0.0099999999467232925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999823282252</v>
+        <v>0.061390397593225288</v>
       </c>
     </row>
   </sheetData>
